--- a/nilai/Komentar_VII.xlsx
+++ b/nilai/Komentar_VII.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -462,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Progres siswa sudah baik</t>
+          <t>catatan wali Agus Ahmad bagus</t>
         </is>
       </c>
     </row>

--- a/nilai/Komentar_VII.xlsx
+++ b/nilai/Komentar_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,326 +452,333 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72100585</v>
+        <v>212207099</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agus Ahmad</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>catatan wali Agus Ahmad bagus</t>
-        </is>
-      </c>
+          <t>Alip Usman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78330643</v>
+        <v>212207100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ajat Wahyudin</t>
+          <t>Asep Komara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78393929</v>
+        <v>212207101</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Angga Maulana</t>
+          <t>Dika Permana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77075358</v>
+        <v>212207102</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arifki</t>
+          <t>Gema Azuayini Ginanjar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71091634</v>
+        <v>212207103</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ayu Anggraeni</t>
+          <t>Indah Sondari</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86861553</v>
+        <v>212207104</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Candra Aditya</t>
+          <t>Isma Dwi Yanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74147706</v>
+        <v>212207105</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cucu Permana</t>
+          <t>Mandala</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73453000</v>
+        <v>212207106</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dani Hidayat</t>
+          <t>Muhamad Padli</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78384162</v>
+        <v>212207107</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deden Ali Zaelani</t>
+          <t>Muhammad Irsyadun Aufa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88237290</v>
+        <v>212207108</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Depi</t>
+          <t>Muhammad Rafif Ihsan Muttaqin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84615911</v>
+        <v>212207109</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Elsa Silviani</t>
+          <t>Muhammad Reffan Fathurrahman</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86927277</v>
+        <v>212207110</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hoerul Anwar</t>
+          <t>Muhammad Tsabit Imani</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>87741551</v>
+        <v>212207111</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ikhsan Arifin</t>
+          <t>Mutia Azahra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76834365</v>
+        <v>212207112</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Irvan Mardiansah</t>
+          <t>Nazrey Ilham Mulyana</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74312312</v>
+        <v>212207113</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kanila Nopita</t>
+          <t>Nur Yanti</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>88344634</v>
+        <v>212207114</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Moh. Nur Asoka</t>
+          <t>Radittia Putra Amarulloh</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>72836838</v>
+        <v>212207115</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Muhamad Dimas Dwi Arifin</t>
+          <t>Reihan Wijaya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64823034</v>
+        <v>212207116</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Muhamad Krisna Mustopa</t>
+          <t>Repi Herdian</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>74725113</v>
+        <v>212207117</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Opik Saepul Rohman</t>
+          <t>Rika Parida</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>85126224</v>
+        <v>212207118</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pitri Yanti</t>
+          <t>Rina Rahmayanti</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73326310</v>
+        <v>212207119</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rahma Tri Wulan</t>
+          <t>Rohmana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>71500266</v>
+        <v>212207120</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rangga Saputra</t>
+          <t>Rosmawati</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>71482235</v>
+        <v>212207122</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Reva Nur Afriani</t>
+          <t>Salsabila Meida</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>82967673</v>
+        <v>212207121</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rima Rianti</t>
+          <t>Saskia Allipa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79246359</v>
+        <v>212207123</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rizky Nurhakim</t>
+          <t>Siti Nur Amalah</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89811143</v>
+        <v>212207124</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Salmah Nurjanah</t>
+          <t>Tini Nur Aeni</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>85953082</v>
+        <v>212207125</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sipa Nurazkia</t>
+          <t>Vicril Nurmulki</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>74747566</v>
+        <v>212207126</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yosep Sulaeman</t>
+          <t>Wanda</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>71778434</v>
+        <v>212207127</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zakiya Zahra Kamila</t>
+          <t>Wandi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>212207128</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yan Yan Sopian</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nilai/Komentar_VII.xlsx
+++ b/nilai/Komentar_VII.xlsx
@@ -459,7 +459,13 @@
           <t>Alip Usman</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda terlihat berusaha untuk meningkatkan semangat belajarnya. Dalam proses pembelajaran dikelas Ananda sekarang tidak terlalu sering absen, ketika proses pembuatan Interaktif Unit Ananda Alif juga terlihat bisa berbaur dengan teman sekelompoknya, semoga kedepannya Alif bisa meningkatkan fokus dan kerjasamanya terkhusus ketika ada tugas yang membutuhkan kerjasama. Belajarlah untuk mengemukakan pendapat, fokus terhadap tanggung jawab kelompok.
+Untuk hal yang berkaitan dengan psikomotor Alif mengalami perubahan yang cukup baik, selalu mengikuti makan siang bersama. Juga terlihat bersemangat ketika mengikuti pembelajaran diluar kelas. Beberapakali Alif juga mengeluh karena mudah pusing. Saran dari bapak, selain menjaga kesehatan, sebaiknya Alif periksakan ke Dokter supaya kendala yang Alif keluhkan bisa teratasi.
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -470,7 +476,14 @@
           <t>Asep Komara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda telah menunjukkan beberapa perkembangan yang cukup baik, selama proses pembelajaran Asep terlihat berusaha untuk memahami setiap mata pelajaran yang diberikan. Rasa percaya diri dalam mengekspresikan dan berkomunikasi juga terlihat mengalami perkembangan yang cukup bagus. 
+Dalam pengerjaan interaktif unit Ananda Asep terpilih sebagai ketua kelompok, Asep terihat tidak sungkan untuk membantu teman-temannya, Asep juga bagus dalam berkomunikasi dengan teman- temannya. Tidak nampak rasa egois ingin menang sendiri, namun dalam hal tanggung jawab sebagai ketua, Asep terlihat masih canggung untuk mengorganisir teman-temannya. Semoga kedepannya Asep akan lebih terbiasa untuk hal tersebut.
+	Ketika jam makan siang Asep terlihat beberapa kali tidak ikut makan dengan alasan sedang tidak berselera, untuk kedepannya Asep diharapkan lebih menjaga pola makan dan olahraga, hal ini berkaitan dengan kehadiran dan juga kondisi Asep yang beberapa kali mengeluh pusing ketika mengikuti pembelajaran. Semoga kedepannya Asep menjadi pribadi yang lebih kuat, percaya diri, dan bertanggung jawab.
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -481,7 +494,14 @@
           <t>Dika Permana</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda telah menunjukkan beberapa perkembangan yang cukup baik, selama proses pembelajaran Dika  terlihat berusaha lebih fokus di beberapa mata pelajaran yang diikuti. Rasa percaya diri dalam mengekspresikan dan berkomunikasi juga terlihat mengalami perkembangan yang cukup bagus.
+	Dalam pengerjaan proyek interaktif unit, Ananda terlihat berusaha untuk bekerja sama dengan teman-temannya. Komunikasi dengan teman-temannya cukup bagus, Dika juga terlihat berani memberikan saran terhadap teman sekelompoknya. Ketika presentasi Interaktif Unit juga tampil luar biasa dengan kemampuan menghafal yang bagus, Dika  menjelaskan hasil observasi di karang taruna dengan kecepatan berbicara yang cepat seperti hasil hafalannya mengalir semua tanpa tersendat lupa ataupun ragu. Semoga kedepannya Dika bisa lebih baik terutama dalam keterlibatan bekerja sama dengan temannya.  
+	Perdalam terus potensi yang Dika miliki, jadikan teman-teman sebagai partner kerja sama. Ingin cepat sampai berjalanlah sendiri, tapi ingin berjalan jauh maka berjalanlah bersama-sama.  
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -492,7 +512,13 @@
           <t>Gema Azuayini Ginanjar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah disemester kedua Ananda dapat mengikuti pembelajaran dengan baik. Ananda disemester ini hampir tidak pernah bolos, Secara pribadi Gema merupakan anak yang tidak banyak berbicara, tetapi selalu terlibat aktif ketika proses pembelajaran.
+	Ketika proses pengerjaan interaktif unit Ananda terlihat bisa bekerjasama dengan teman-temannya, dalam beberapa kali kesempatan ananda juga terlihat masih belajar untuk mengambil peran dalam kelompoknya. Menurut hemat bapak, Gema harus lebih meningkatkan percaya diri dalam berkomunikasi dengan teman-temannya hal tersebut akan sangat berguna ketika Ananda belajar kelompok. Semoga Ananda bisa belajar lagi untuk berkontribusi dalam pembelajaran yang nantinya membutuhkan kerjasama team
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -503,7 +529,14 @@
           <t>Indah Sondari</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di semester kedua Ananda terlihat lebih menikmati dalam  mengikuti setiap pembelajaran. Baik ketika belajar untuk sendiri maupun ketika berkelompok, sebagai seorang siswa Indah dapat bekerja sama dengan sangat baik, terlibat aktif ketika berkomunikasi, wawancara, menulis, dan menyampaikan ide  terhadap teman-temannya.
+ 	Ketika mengerjakan projek interaktif unit Indah bisa bergabung dengan teman-temannya untuk bersama-sama secara pribadi Indah merupakan anak yang memiliki pembawaan yang menyenangkan. Sehingga ketika bekerja kelompok teman-temannya merasa senang bekerja sama dengan Indah. Kemampuan Indah dalam berbicara didepan kelas terus mengalami peningkatan. Lancar dan fasih dalam berbicara adalah ciri khas indah ketika berada didalam kelas.
+Ketika jam makan siang Ananda indah juga terlihat makan dengan baik, sesekali terlihat bertukar cerita dengan teman-temannya. Semoga kedepannya Indah dapat terus menunjukkan sikap berkompetisi dalam meraih yang terbaik. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -514,7 +547,13 @@
           <t>Isma Dwi Yanti</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok.  Isma merupakan anak yang memiliki pembawaan yang menyenangkan. Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Isma selalu bersemangat dalam proses pengerjaan Interaktif Unit. Isma juga anak yang berani mengemukakan pendapat dan bagus dalam berkomunikasi. 
+Secara psikomotor Isma juga merupakan anak yang pintar menjaga kesehatan, karena hampir setiap hari Ananda selalu mengikuti pembelajaran. Semoga kedepannya Isma bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Isma.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -525,7 +564,13 @@
           <t>Mandala</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda dapat mengikuti pembelajaran dengan lebih giat. Setiap pagi Mandala bersedia memimpin teman-temannya untuk opening didalam kelas,begitu pula ketika pulang.  Ananda juga yang bersedia menjemput guru mapel dari kantor dan mengecek kesiapan teman-temannya ketika akan belajar. Dibeberapa mata pelajaran mandala juga mengalami perubahan sikap yang baik, seperti di pelajaran hadis Ananda mencoba untuk mendahulukan diri dalam menyetorkan hafalan. 
+Dalam proses pengerjaan projek interaktif unit Mandala ikut serta dalam beberapa proses tahapan pengerjaan termasuk dari membuat cover, menulis dan mewawancarai. Ada beberapa momen juga dimana Ananda terlihat kurang bergairah untuk bekerja sama dengan temannya. Semoga kedepannya Ananda bisa menjadi pribadi yang lebih baik dan bisa belajar bekerja pada saat pembelajaran yang bersifat gruf supaya mendapatkan hasil yang maksimal.
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -536,7 +581,14 @@
           <t>Muhamad Padli</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Padli.
+Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. Meskipun dibeberapa momen terlihat Ananda kesulitan dalam memahami kelompoknya.
+Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -547,7 +599,13 @@
           <t>Muhammad Irsyadun Aufa</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di pertengahan semester kedua ini Ananda dapat mengikuti pembelajran dengan cukup baik, Ananda merupakan anak yang aktif dalam mengikuti pembelajaran. Dalam pengerjaan interaktif Unit Ananda masuk dalam gruf yang meniliti kebun kopi.  Dalam pengerjaan tugas yang bersifat pribadi ananda cukup baik dalam menyelesaikan tugas, tetapi ketika masuk kedalam kelompok ananda sepertinya masih perlu waktu untuk menyesuaikan diri untuk terlibat didalamnya. 
+Semoga disemester berikutnya ananda bisa meningkatkan lagi kerjasama dalam tugas yang bersifat kelompok. Dan bisa lebih konsentrasi ketika proses pembelajaran
+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -558,7 +616,13 @@
           <t>Muhammad Rafif Ihsan Muttaqin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah selama proses pembelajaran dipertengahan semester kedua ini Raffif bisa mengikuti pembelajaran dengan baik. Selama pembelajaran dikelas Raffif termasuk anak yang tekun dan teliti dalam mengerjakan sesuatu. Disemester ini pula, Raffif terlihat lebih nyaman dalam bekerjasama dengan teman kelompoknya. Raffif juga memiliki komunikasi yang baik ketika mewawancarai narasumber pada tahap proses mengumupulkan data di projek interaktif unit.
+Semoga disemester berikutnya Ananda bisa mempertahankan prestasinya, dan lebih bisa membagi waktu terkhusus ketika diluar kelas. Untuk didalam kelas mohon untuk tidak terlalu fokus kepada teman sepermainan, dan mengacuhkan teman lainnya.
+</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,7 +633,13 @@
           <t>Muhammad Reffan Fathurrahman</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah Ananda Reffan dipertengahan semester kedua ini terlihat lebih dewasa saat berada didalam kelas. Percaya diri Ananda juga patut diapresiasi, Reffan  sekarang lebih berani tampil dan komunikasi terhadap temannya juga mulai terbuka. Selain itu Reffan juga berani untuk mengemukakan ide yang dimiliki.
+Ketika jam makan Reffan terlihat selalu ikut makan bersama, meskipun terlihat  Reffan ketika makan selalu menghabiskan makan paling akhir. Semoga disemester berikutnya Reffan dapat mempertahankan prestasinya dan juga mampu menjaga kesehatan dan kerapihan diri.
+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -580,7 +650,13 @@
           <t>Muhammad Tsabit Imani</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat mengikuti pembelajaran dengan baik, dalam proses pengerjaan interaktif unit Ananda terlibat aktif dengan teman kelompoknya. Komunikasi terhadap teman-temannya juga bagus, Tsabit juga berani untuk mencurahkan ide dan berani untuk mendiskusikan hal-hal kecil dengan teman kelompoknya. Kontribusinya terhadap kelompok juga bagus, Tsabit dapat mengambil peran dalam kelompok tersebut seperti membantu menggambar membantu membuat garis. 
+Semoga kedepannya ananda dapat mempertahankan prestasi dan meningkatkan semangat dan fokus ketika belajar. Sesekali Ananda terlihat moody, terkadang menggebu-gebu dilain hari terlihat murung terutama untuk berinteraksi dengan temannya.
+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -591,7 +667,14 @@
           <t>Mutia Azahra</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda terlihat lebih nyaman dalam pembelajaran dikelas. Ananda termasuk anak yang memiliki kepribadian yang baik, berani tampil serta berani untuk mengemukakan pendapat.
+Dalam pengerjaan interaktif unit ananda memiliki kontribusi yang sangat baik dalam penyelesaian bentuk laporan serta mampu bersedia untuk tampil menjadi pengatur acara di presentasi IU didepan para guru dan kakak kelasnya.
+Semoga disemester berikutnya, Ananda bisa tampil lebih percaya diri lagi. Dan bisa terus meningkatkan potensi yang Ananda miliki.
+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -602,7 +685,14 @@
           <t>Nazrey Ilham Mulyana</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda telah menyelesaikan pembelajaran dengan perubahan yang sangat baik. Di semester ini Ananda tampak lebih percaya diri dan berani untuk tampil didepan kelas. Ananda juga disemester terlihat lebih fokus terhadap target dan tugas yang diembankan kepadanya.
+Pada proses pembuatan laporan interaktif unit nazrey terlihat berani untuk bekerja sama dengan temannya unuk mengambil beberapa peran, seperti berani untuk mendoumentasikan hasil wawancara dari narasumber yang diobservasi. Ketika berkelompokpun Nazrey akan memilih untuk membantu kelompoknya dibanding bermain-main dengan  temannya. Meskipun terkadang dalam pembelajaran dikelas, seringkali Nazrey asyik  menggambar dibuku tulisnya.
+Semoga kedepannya Nazrey bisa mempertahankan percaya diri yang sudah dimiliki dan lebih fokus ketika pembelajaran berlangsung.
+</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -613,7 +703,11 @@
           <t>Nur Yanti</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda bisa mengikuti pembelajaran dengan cukup bagus. Didalam kelas Nuryanti merupakan anak yang memiliki keberanian untuk bertanya dan cukup bagus dalam berkomunikasi. Dalam pengerjaan   interaktif unit Nuryanti terlibat aktif dalam menyelesaikan tugas tersebut. Nuryanti juga merupakan anak yang rajin dan tidak menampakkan rasa berat hati ketika menolong dan membantu temannya. Untuk kedepannya semoga Nuryanti bisa lebih fokus ketika pembelajaran dalam kelas, serta bisa lebih percaya diri ketika mengerjakan tugas yang bersifat individu. </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -624,7 +718,13 @@
           <t>Radittia Putra Amarulloh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat terus menunjukkan semangatnya dalam belajar. Secara Individu  Radittia merupakan anak yang memiliki beberapa potensi yang baik. Memiliki kecakapan dalam menghafal, pengalaman belajar yang baik, serta memiliki suara yang merdu. Dipertengahan semester inipula, fokus pembelajaran lebih diarahkan ke pembelajaran yang bersifat kelompok yang mana bertujuan mengasah kemampuan anak untuk berkomunikasi memahami satu sama lain dan memecahkan masalah secara bersama-sama. 
+Semoga disemester berikutnya Ananda bisa mempertahankan prestasi yang dimiliki, lebih percaya diri dalam mengemukakan pendapat serta bisa lebih terbuka terhadap teman-teman untuk berdiskusi dan bekerjasama.
+</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -635,7 +735,13 @@
           <t>Reihan Wijaya</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda bisa meningkatkan rasa percaya diri dan fokus dalam belajar. Sehingga nampak sekali perubahan sikap yang dimunculkan ketika berada didalam kelas. Reihan sebagai individu memiliki potensi yang bagus dalam menerima informasi dan pembelajaran, disemester lalu potensi ini agak sedikit tertutupi dikarenakan Reihan tidak fokus dan terkadang tampil semaunya sendiri.
+Dalam pengerjaan proyek interaktif unit Reihan mampu bersama-sama menyelesaikan laporan. Reihan terlihat lebih fokus  bekerja dengan tugas yang menjadi tanggung jawabnya. Sementara untuk menyampaikan ide yang dimilikinya Reihan terlihat  masih canggung untuk mengkomunikasikannya terhadap teman-temannya. Semoga disemester berikutnya Reihan bisa tampil percaya diri dan melatih diri untuk bekerjasama, lebih fokus lagi dalam belajar dan  totalitas dalam melakukan presentasi
+</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -646,7 +752,14 @@
           <t>Repi Herdian</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda mampu tampil konsisten dalam mengikuti pembelajaran baik secara individu ataupun kelompok. Repi merupakan anak yang baik dan tidak akan merasa keberatan untuk membantu temannya. 
+Repi juga memiliki keberanian yang sangat baik untuk tampil didepan, pada saat presentasi interaktif unit Repi dengan begitu percaya diri menjadi moderator diacara tersebut.
+Semoga Repi bisa mempertahankan prestasinya dan tidak cepat puas untuk hasil yang telah diraih disemester ini.
+</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -657,7 +770,13 @@
           <t>Rika Parida</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda bisa menyelesaikan pembelajaran dengan kegigihan yang luar biasa. Ananda ketika dalam kelas menunjukkan tanggung jawab yang sangat baik, terutama terhadap peran yang diberikan. Seperti menjadi seksi kebersihan dikelas ataupun terlibat katif di organisasi OSIS.
+Semoga disemester berikutnya, Ananda bisa mempertahankan prestasi yang telah diraih. Dan lebih terbuka untuk bisa bekerjasama dengan teman-temannya yang lain.
+</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -668,7 +787,13 @@
           <t>Rina Rahmayanti</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah sekarang ananda telah menyelesaikan pembelajaran dipertengahan semester kedua, Ananda dikenal oleh teman-temannya sebagai siswa yang tidak banyak bicara. Disemester ini juga sekolah lebih menekankan kepada projek yang bersifat kelompok. Yang bertujuan agar anak-anak bisa lebih bisa berkomunikasi mengenal karakter satu sama lain. Alhamdulillah Rina mampu mengambil peran dalam projek tersebut salahsatunya dengan membuat dokumentasi foto dan mengedit video. 
+Semoga disemester berikutnya Rina bisa lebih tampil percaya diri untuk berbicara dan berkomunikasi langsung. Serta bisa menjaga kesehatan diri supaya tidak terlalu sering absen dalam proses pembelajaran.
+</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -679,7 +804,13 @@
           <t>Rohmana</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat menyelesaikan seluruh pembelajaran, Ananda termasuk anak yang humble dan kelihatan bisa menempatkan diri ketika didalam kelas. Dipertengahan semester kedua ini kegiatan difokuskan untuk menyelesaikan tugas yang bersifat kelompok. Hal tersebut bertujuan agar siswa dapat melatih kerjasama, memahami satu sama lain, serta melatih komunikasi. Rohmana secara pribadi cukup baik dalam melaksanakan tugas, tetapi secara kelompok masih harus banyak belajar dan berlatih untuk bisa aktif dan mengambil peran dalam kelompok tersebut. 
+Secara psikomotor Rohmana merupakan anak yang jarang sakit, bisa menjaga kerapihan serta terampil dibeberapa olahraga.
+</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -690,7 +821,13 @@
           <t>Rosmawati</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alhamdulillah ananda telah menyelesaikan pembelajaran ditengah semester genap ini, ananda merupakan pribadi yang periang didalam kelas. Dipertengahan semester kedua ini kegiatan difokuskan untuk menyelesaikan tugas yang bersifat kelompok. Hal tersebut bertujuan agar siswa dapat melatih kerjasama, memahami satu sama lain, serta melatih komunikasi. Ananda secara individu diluar pembelajaran merupakan anak yang terlihat nyaman dalam berkomunikasi dan berteman, nampaknya hal ini akan sangat bagus jika ananda dapat mengaplikasikan diri dengan mengambil peran ketika pembelajaran yang bersifat berkelompok. 
+Semoga disemester berikutnya ananda bisa lebih fokus dalam belajar, dan lebih percaya diri dalam mempresentasikan tugas.
+</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -701,7 +838,14 @@
           <t>Salsabila Meida</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda dapat menyelesaikan pembelajaran dengan sangat baik, terlihat adanya peningkatan ketika mengikuti pembelajaran. Ananda terlihat lebih fokus dan bersungguh-sungguh dalam mengikuti pembelajaran. 
+ Di semester ini proses pembelajaran lebih ditekankan kepada kerja kelompok yakni mengerjakan interaktif unit dengan tema yang berbeda-beda disetiap kelompoknya. Hal tersebut bertujuan untuk melatih anak-anak untuk berani berkomunikasi, berpendapat, dan bahu-membahu mengerjakan tugas tersebut. Ananda terlihat mampu bekerja sama dengan teman-temannya, Ananda juga terlihat bekerja keras agar semua temannya ikut andil dalam pengerjaan projek tersebut. Ananda juga terlihat tampil lebih berani dan percaya diri di semester ini.
+Secara psikomotor ananda juga selalu terlihat tidak melewatkan siang bersama, serta untuk kehadiran ananda tidak pernah melewatkan pembelajaran. Disemester berikutnya  semoga ananda lebih bisa menjaga percaya diri, keberanian dan tanggungjawab. Pertahankan!
+</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -712,7 +856,13 @@
           <t>Saskia Allipa</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda dapat menyelesaikan pembelajaran dengan sangat baik, terlihat adanya peningkatan ketika mengikuti pembelajaran. Ananda terlihat lebih nyaman saat berada didalam kelas. Di semester ini proses pembelajaran lebih ditekankan kepada kerja kelompok yakni mengerjakan interaktif unit dengan tema yang berbeda-beda disetiap kelompoknya. Hal tersebut bertujuan untuk melatih anak-anak untuk berani berkomunikasi, berpendapat, dan bahu-membahu mengerjakan tugas tersebut. Ananda terlihat mampu bekerja sama dengan teman-temannya, Ananda juga terlihat bekerja keras agar semua temannya ikut andil dalam pengerjaan projek tersebut.
+Secara psikomotor ananda juga selalu terlihat tidak melewatkan saiang bersama, serta untuk kehadiran ananda tidak pernah melewatkan pembelajaran. Disemester berikutnya  semoga ananda lebih bisa menjaga percaya diri, keberanian dan tanggungjawab. Serta mampu belajar bersama-sama  dalam mengerjakan sesuatu
+</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -723,7 +873,13 @@
           <t>Siti Nur Amalah</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok.Siti merupakan anak yang memiliki pembawaan yang humble Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Siti selalu bersemangat dalam proses pengerjaan Interaktif Unit. Siti juga mulai terlihat berani mengemukakan pendapat dan mulai berani untuk  berkomunikasi dengan temannya.
+Secara psikomotor Siti juga merupakan anak yang pintar menjaga kesehatan, karena hampir setiap hari Ananda selalu mengikuti pembelajaran. Semoga kedepannya Siti bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Siti.
+</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -734,7 +890,13 @@
           <t>Tini Nur Aeni</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok. Tini merupakan anak yang memiliki pembawaan yang baik dan tidak keberatan jika dimintai tolong. Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Tini selalu bersemangat dalam proses pengerjaan Interaktif Unit. Tini juga mulai terlihat berani mengemukakan pendapat dan mulai berani untuk  berkomunikasi dengan temannya.
+ Semoga kedepannya Tini bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Tini.
+</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -745,7 +907,13 @@
           <t>Vicril Nurmulki</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah di pertengahan semester kedua ini Ananda dapat mengikuti pembelajran dengan cukup baik, Ananda merupakan anak yang aktif dalam mengikuti pembelajaran. Dalam pengerjaan interaktif Unit Ananda masuk dalam gruf yang meniliti pasar dadakan Jum’at.  Dalam pengerjaan tugas yang bersifat pribadi ananda cukup baik dalam menyelesaikan tugas, tetapi ketika masuk kedalam kelompok ananda sepertinya masih perlu waktu untuk menyesuaikan diri untuk terlibat didalamnya. 
+Semoga disemester berikutnya ananda bisa meningkatkan lagi kerjasama dalam tugas yang bersifat kelompok. Dan bisa lebih konsentrasi ketika proses pembelajaran.
+</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -756,7 +924,14 @@
           <t>Wanda</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Wanda
+Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. 
+Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
+</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -767,7 +942,14 @@
           <t>Wandi</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Wandi
+Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. 
+Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
+</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -778,7 +960,13 @@
           <t>Yan Yan Sopian</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alhamdulillah sekarang ananda telah menyelesaikan pembelajaran dipertengahan semester kedua, Ananda dikenal oleh teman-temannya sebagai siswa yang tidak banyak bicara. Disemester ini juga sekolah lebih menekankan kepada projek yang bersifat kelompok. Yang bertujuan agar anak-anak bisa lebih bisa berkomunikasi mengenal karakter satu sama lain. Alhamdulillah Yan yan mampu mengambil peran dalam projek tersebut.
+Semoga disemester berikutnya Yan yan bisa lebih tampil percaya diri untuk berbicara dan berkomunikasi langsung baik dengan teman maupun dengan guru. 
+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nilai/Komentar_VII.xlsx
+++ b/nilai/Komentar_VII.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,7 @@
           <t>Alip Usman</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda terlihat berusaha untuk meningkatkan semangat belajarnya. Dalam proses pembelajaran dikelas Ananda sekarang tidak terlalu sering absen, ketika proses pembuatan Interaktif Unit Ananda Alif juga terlihat bisa berbaur dengan teman sekelompoknya, semoga kedepannya Alif bisa meningkatkan fokus dan kerjasamanya terkhusus ketika ada tugas yang membutuhkan kerjasama. Belajarlah untuk mengemukakan pendapat, fokus terhadap tanggung jawab kelompok.
-Untuk hal yang berkaitan dengan psikomotor Alif mengalami perubahan yang cukup baik, selalu mengikuti makan siang bersama. Juga terlihat bersemangat ketika mengikuti pembelajaran diluar kelas. Beberapakali Alif juga mengeluh karena mudah pusing. Saran dari bapak, selain menjaga kesehatan, sebaiknya Alif periksakan ke Dokter supaya kendala yang Alif keluhkan bisa teratasi.
-</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -476,14 +470,7 @@
           <t>Asep Komara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda telah menunjukkan beberapa perkembangan yang cukup baik, selama proses pembelajaran Asep terlihat berusaha untuk memahami setiap mata pelajaran yang diberikan. Rasa percaya diri dalam mengekspresikan dan berkomunikasi juga terlihat mengalami perkembangan yang cukup bagus. 
-Dalam pengerjaan interaktif unit Ananda Asep terpilih sebagai ketua kelompok, Asep terihat tidak sungkan untuk membantu teman-temannya, Asep juga bagus dalam berkomunikasi dengan teman- temannya. Tidak nampak rasa egois ingin menang sendiri, namun dalam hal tanggung jawab sebagai ketua, Asep terlihat masih canggung untuk mengorganisir teman-temannya. Semoga kedepannya Asep akan lebih terbiasa untuk hal tersebut.
-	Ketika jam makan siang Asep terlihat beberapa kali tidak ikut makan dengan alasan sedang tidak berselera, untuk kedepannya Asep diharapkan lebih menjaga pola makan dan olahraga, hal ini berkaitan dengan kehadiran dan juga kondisi Asep yang beberapa kali mengeluh pusing ketika mengikuti pembelajaran. Semoga kedepannya Asep menjadi pribadi yang lebih kuat, percaya diri, dan bertanggung jawab.
-</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -494,14 +481,7 @@
           <t>Dika Permana</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di semester kedua ini Ananda telah menunjukkan beberapa perkembangan yang cukup baik, selama proses pembelajaran Dika  terlihat berusaha lebih fokus di beberapa mata pelajaran yang diikuti. Rasa percaya diri dalam mengekspresikan dan berkomunikasi juga terlihat mengalami perkembangan yang cukup bagus.
-	Dalam pengerjaan proyek interaktif unit, Ananda terlihat berusaha untuk bekerja sama dengan teman-temannya. Komunikasi dengan teman-temannya cukup bagus, Dika juga terlihat berani memberikan saran terhadap teman sekelompoknya. Ketika presentasi Interaktif Unit juga tampil luar biasa dengan kemampuan menghafal yang bagus, Dika  menjelaskan hasil observasi di karang taruna dengan kecepatan berbicara yang cepat seperti hasil hafalannya mengalir semua tanpa tersendat lupa ataupun ragu. Semoga kedepannya Dika bisa lebih baik terutama dalam keterlibatan bekerja sama dengan temannya.  
-	Perdalam terus potensi yang Dika miliki, jadikan teman-teman sebagai partner kerja sama. Ingin cepat sampai berjalanlah sendiri, tapi ingin berjalan jauh maka berjalanlah bersama-sama.  
-</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -512,13 +492,7 @@
           <t>Gema Azuayini Ginanjar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah disemester kedua Ananda dapat mengikuti pembelajaran dengan baik. Ananda disemester ini hampir tidak pernah bolos, Secara pribadi Gema merupakan anak yang tidak banyak berbicara, tetapi selalu terlibat aktif ketika proses pembelajaran.
-	Ketika proses pengerjaan interaktif unit Ananda terlihat bisa bekerjasama dengan teman-temannya, dalam beberapa kali kesempatan ananda juga terlihat masih belajar untuk mengambil peran dalam kelompoknya. Menurut hemat bapak, Gema harus lebih meningkatkan percaya diri dalam berkomunikasi dengan teman-temannya hal tersebut akan sangat berguna ketika Ananda belajar kelompok. Semoga Ananda bisa belajar lagi untuk berkontribusi dalam pembelajaran yang nantinya membutuhkan kerjasama team
-</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -529,14 +503,7 @@
           <t>Indah Sondari</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di semester kedua Ananda terlihat lebih menikmati dalam  mengikuti setiap pembelajaran. Baik ketika belajar untuk sendiri maupun ketika berkelompok, sebagai seorang siswa Indah dapat bekerja sama dengan sangat baik, terlibat aktif ketika berkomunikasi, wawancara, menulis, dan menyampaikan ide  terhadap teman-temannya.
- 	Ketika mengerjakan projek interaktif unit Indah bisa bergabung dengan teman-temannya untuk bersama-sama secara pribadi Indah merupakan anak yang memiliki pembawaan yang menyenangkan. Sehingga ketika bekerja kelompok teman-temannya merasa senang bekerja sama dengan Indah. Kemampuan Indah dalam berbicara didepan kelas terus mengalami peningkatan. Lancar dan fasih dalam berbicara adalah ciri khas indah ketika berada didalam kelas.
-Ketika jam makan siang Ananda indah juga terlihat makan dengan baik, sesekali terlihat bertukar cerita dengan teman-temannya. Semoga kedepannya Indah dapat terus menunjukkan sikap berkompetisi dalam meraih yang terbaik. 
-</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -547,13 +514,7 @@
           <t>Isma Dwi Yanti</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok.  Isma merupakan anak yang memiliki pembawaan yang menyenangkan. Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Isma selalu bersemangat dalam proses pengerjaan Interaktif Unit. Isma juga anak yang berani mengemukakan pendapat dan bagus dalam berkomunikasi. 
-Secara psikomotor Isma juga merupakan anak yang pintar menjaga kesehatan, karena hampir setiap hari Ananda selalu mengikuti pembelajaran. Semoga kedepannya Isma bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Isma.
-</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -564,13 +525,7 @@
           <t>Mandala</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda dapat mengikuti pembelajaran dengan lebih giat. Setiap pagi Mandala bersedia memimpin teman-temannya untuk opening didalam kelas,begitu pula ketika pulang.  Ananda juga yang bersedia menjemput guru mapel dari kantor dan mengecek kesiapan teman-temannya ketika akan belajar. Dibeberapa mata pelajaran mandala juga mengalami perubahan sikap yang baik, seperti di pelajaran hadis Ananda mencoba untuk mendahulukan diri dalam menyetorkan hafalan. 
-Dalam proses pengerjaan projek interaktif unit Mandala ikut serta dalam beberapa proses tahapan pengerjaan termasuk dari membuat cover, menulis dan mewawancarai. Ada beberapa momen juga dimana Ananda terlihat kurang bergairah untuk bekerja sama dengan temannya. Semoga kedepannya Ananda bisa menjadi pribadi yang lebih baik dan bisa belajar bekerja pada saat pembelajaran yang bersifat gruf supaya mendapatkan hasil yang maksimal.
-</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -581,14 +536,7 @@
           <t>Muhamad Padli</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Padli.
-Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. Meskipun dibeberapa momen terlihat Ananda kesulitan dalam memahami kelompoknya.
-Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
-</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -599,13 +547,7 @@
           <t>Muhammad Irsyadun Aufa</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di pertengahan semester kedua ini Ananda dapat mengikuti pembelajran dengan cukup baik, Ananda merupakan anak yang aktif dalam mengikuti pembelajaran. Dalam pengerjaan interaktif Unit Ananda masuk dalam gruf yang meniliti kebun kopi.  Dalam pengerjaan tugas yang bersifat pribadi ananda cukup baik dalam menyelesaikan tugas, tetapi ketika masuk kedalam kelompok ananda sepertinya masih perlu waktu untuk menyesuaikan diri untuk terlibat didalamnya. 
-Semoga disemester berikutnya ananda bisa meningkatkan lagi kerjasama dalam tugas yang bersifat kelompok. Dan bisa lebih konsentrasi ketika proses pembelajaran
-</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -616,13 +558,7 @@
           <t>Muhammad Rafif Ihsan Muttaqin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah selama proses pembelajaran dipertengahan semester kedua ini Raffif bisa mengikuti pembelajaran dengan baik. Selama pembelajaran dikelas Raffif termasuk anak yang tekun dan teliti dalam mengerjakan sesuatu. Disemester ini pula, Raffif terlihat lebih nyaman dalam bekerjasama dengan teman kelompoknya. Raffif juga memiliki komunikasi yang baik ketika mewawancarai narasumber pada tahap proses mengumupulkan data di projek interaktif unit.
-Semoga disemester berikutnya Ananda bisa mempertahankan prestasinya, dan lebih bisa membagi waktu terkhusus ketika diluar kelas. Untuk didalam kelas mohon untuk tidak terlalu fokus kepada teman sepermainan, dan mengacuhkan teman lainnya.
-</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -633,13 +569,7 @@
           <t>Muhammad Reffan Fathurrahman</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah Ananda Reffan dipertengahan semester kedua ini terlihat lebih dewasa saat berada didalam kelas. Percaya diri Ananda juga patut diapresiasi, Reffan  sekarang lebih berani tampil dan komunikasi terhadap temannya juga mulai terbuka. Selain itu Reffan juga berani untuk mengemukakan ide yang dimiliki.
-Ketika jam makan Reffan terlihat selalu ikut makan bersama, meskipun terlihat  Reffan ketika makan selalu menghabiskan makan paling akhir. Semoga disemester berikutnya Reffan dapat mempertahankan prestasinya dan juga mampu menjaga kesehatan dan kerapihan diri.
-</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -650,13 +580,7 @@
           <t>Muhammad Tsabit Imani</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat mengikuti pembelajaran dengan baik, dalam proses pengerjaan interaktif unit Ananda terlibat aktif dengan teman kelompoknya. Komunikasi terhadap teman-temannya juga bagus, Tsabit juga berani untuk mencurahkan ide dan berani untuk mendiskusikan hal-hal kecil dengan teman kelompoknya. Kontribusinya terhadap kelompok juga bagus, Tsabit dapat mengambil peran dalam kelompok tersebut seperti membantu menggambar membantu membuat garis. 
-Semoga kedepannya ananda dapat mempertahankan prestasi dan meningkatkan semangat dan fokus ketika belajar. Sesekali Ananda terlihat moody, terkadang menggebu-gebu dilain hari terlihat murung terutama untuk berinteraksi dengan temannya.
-</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -667,14 +591,7 @@
           <t>Mutia Azahra</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda terlihat lebih nyaman dalam pembelajaran dikelas. Ananda termasuk anak yang memiliki kepribadian yang baik, berani tampil serta berani untuk mengemukakan pendapat.
-Dalam pengerjaan interaktif unit ananda memiliki kontribusi yang sangat baik dalam penyelesaian bentuk laporan serta mampu bersedia untuk tampil menjadi pengatur acara di presentasi IU didepan para guru dan kakak kelasnya.
-Semoga disemester berikutnya, Ananda bisa tampil lebih percaya diri lagi. Dan bisa terus meningkatkan potensi yang Ananda miliki.
-</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -685,14 +602,7 @@
           <t>Nazrey Ilham Mulyana</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda telah menyelesaikan pembelajaran dengan perubahan yang sangat baik. Di semester ini Ananda tampak lebih percaya diri dan berani untuk tampil didepan kelas. Ananda juga disemester terlihat lebih fokus terhadap target dan tugas yang diembankan kepadanya.
-Pada proses pembuatan laporan interaktif unit nazrey terlihat berani untuk bekerja sama dengan temannya unuk mengambil beberapa peran, seperti berani untuk mendoumentasikan hasil wawancara dari narasumber yang diobservasi. Ketika berkelompokpun Nazrey akan memilih untuk membantu kelompoknya dibanding bermain-main dengan  temannya. Meskipun terkadang dalam pembelajaran dikelas, seringkali Nazrey asyik  menggambar dibuku tulisnya.
-Semoga kedepannya Nazrey bisa mempertahankan percaya diri yang sudah dimiliki dan lebih fokus ketika pembelajaran berlangsung.
-</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -703,11 +613,7 @@
           <t>Nur Yanti</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda bisa mengikuti pembelajaran dengan cukup bagus. Didalam kelas Nuryanti merupakan anak yang memiliki keberanian untuk bertanya dan cukup bagus dalam berkomunikasi. Dalam pengerjaan   interaktif unit Nuryanti terlibat aktif dalam menyelesaikan tugas tersebut. Nuryanti juga merupakan anak yang rajin dan tidak menampakkan rasa berat hati ketika menolong dan membantu temannya. Untuk kedepannya semoga Nuryanti bisa lebih fokus ketika pembelajaran dalam kelas, serta bisa lebih percaya diri ketika mengerjakan tugas yang bersifat individu. </t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -718,13 +624,7 @@
           <t>Radittia Putra Amarulloh</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat terus menunjukkan semangatnya dalam belajar. Secara Individu  Radittia merupakan anak yang memiliki beberapa potensi yang baik. Memiliki kecakapan dalam menghafal, pengalaman belajar yang baik, serta memiliki suara yang merdu. Dipertengahan semester inipula, fokus pembelajaran lebih diarahkan ke pembelajaran yang bersifat kelompok yang mana bertujuan mengasah kemampuan anak untuk berkomunikasi memahami satu sama lain dan memecahkan masalah secara bersama-sama. 
-Semoga disemester berikutnya Ananda bisa mempertahankan prestasi yang dimiliki, lebih percaya diri dalam mengemukakan pendapat serta bisa lebih terbuka terhadap teman-teman untuk berdiskusi dan bekerjasama.
-</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -735,13 +635,7 @@
           <t>Reihan Wijaya</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester ini Ananda bisa meningkatkan rasa percaya diri dan fokus dalam belajar. Sehingga nampak sekali perubahan sikap yang dimunculkan ketika berada didalam kelas. Reihan sebagai individu memiliki potensi yang bagus dalam menerima informasi dan pembelajaran, disemester lalu potensi ini agak sedikit tertutupi dikarenakan Reihan tidak fokus dan terkadang tampil semaunya sendiri.
-Dalam pengerjaan proyek interaktif unit Reihan mampu bersama-sama menyelesaikan laporan. Reihan terlihat lebih fokus  bekerja dengan tugas yang menjadi tanggung jawabnya. Sementara untuk menyampaikan ide yang dimilikinya Reihan terlihat  masih canggung untuk mengkomunikasikannya terhadap teman-temannya. Semoga disemester berikutnya Reihan bisa tampil percaya diri dan melatih diri untuk bekerjasama, lebih fokus lagi dalam belajar dan  totalitas dalam melakukan presentasi
-</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -752,14 +646,7 @@
           <t>Repi Herdian</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda mampu tampil konsisten dalam mengikuti pembelajaran baik secara individu ataupun kelompok. Repi merupakan anak yang baik dan tidak akan merasa keberatan untuk membantu temannya. 
-Repi juga memiliki keberanian yang sangat baik untuk tampil didepan, pada saat presentasi interaktif unit Repi dengan begitu percaya diri menjadi moderator diacara tersebut.
-Semoga Repi bisa mempertahankan prestasinya dan tidak cepat puas untuk hasil yang telah diraih disemester ini.
-</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -770,13 +657,7 @@
           <t>Rika Parida</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda bisa menyelesaikan pembelajaran dengan kegigihan yang luar biasa. Ananda ketika dalam kelas menunjukkan tanggung jawab yang sangat baik, terutama terhadap peran yang diberikan. Seperti menjadi seksi kebersihan dikelas ataupun terlibat katif di organisasi OSIS.
-Semoga disemester berikutnya, Ananda bisa mempertahankan prestasi yang telah diraih. Dan lebih terbuka untuk bisa bekerjasama dengan teman-temannya yang lain.
-</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -787,13 +668,7 @@
           <t>Rina Rahmayanti</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah sekarang ananda telah menyelesaikan pembelajaran dipertengahan semester kedua, Ananda dikenal oleh teman-temannya sebagai siswa yang tidak banyak bicara. Disemester ini juga sekolah lebih menekankan kepada projek yang bersifat kelompok. Yang bertujuan agar anak-anak bisa lebih bisa berkomunikasi mengenal karakter satu sama lain. Alhamdulillah Rina mampu mengambil peran dalam projek tersebut salahsatunya dengan membuat dokumentasi foto dan mengedit video. 
-Semoga disemester berikutnya Rina bisa lebih tampil percaya diri untuk berbicara dan berkomunikasi langsung. Serta bisa menjaga kesehatan diri supaya tidak terlalu sering absen dalam proses pembelajaran.
-</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -804,13 +679,7 @@
           <t>Rohmana</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester kedua ini Ananda dapat menyelesaikan seluruh pembelajaran, Ananda termasuk anak yang humble dan kelihatan bisa menempatkan diri ketika didalam kelas. Dipertengahan semester kedua ini kegiatan difokuskan untuk menyelesaikan tugas yang bersifat kelompok. Hal tersebut bertujuan agar siswa dapat melatih kerjasama, memahami satu sama lain, serta melatih komunikasi. Rohmana secara pribadi cukup baik dalam melaksanakan tugas, tetapi secara kelompok masih harus banyak belajar dan berlatih untuk bisa aktif dan mengambil peran dalam kelompok tersebut. 
-Secara psikomotor Rohmana merupakan anak yang jarang sakit, bisa menjaga kerapihan serta terampil dibeberapa olahraga.
-</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -821,13 +690,7 @@
           <t>Rosmawati</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Alhamdulillah ananda telah menyelesaikan pembelajaran ditengah semester genap ini, ananda merupakan pribadi yang periang didalam kelas. Dipertengahan semester kedua ini kegiatan difokuskan untuk menyelesaikan tugas yang bersifat kelompok. Hal tersebut bertujuan agar siswa dapat melatih kerjasama, memahami satu sama lain, serta melatih komunikasi. Ananda secara individu diluar pembelajaran merupakan anak yang terlihat nyaman dalam berkomunikasi dan berteman, nampaknya hal ini akan sangat bagus jika ananda dapat mengaplikasikan diri dengan mengambil peran ketika pembelajaran yang bersifat berkelompok. 
-Semoga disemester berikutnya ananda bisa lebih fokus dalam belajar, dan lebih percaya diri dalam mempresentasikan tugas.
-</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -838,14 +701,7 @@
           <t>Salsabila Meida</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda dapat menyelesaikan pembelajaran dengan sangat baik, terlihat adanya peningkatan ketika mengikuti pembelajaran. Ananda terlihat lebih fokus dan bersungguh-sungguh dalam mengikuti pembelajaran. 
- Di semester ini proses pembelajaran lebih ditekankan kepada kerja kelompok yakni mengerjakan interaktif unit dengan tema yang berbeda-beda disetiap kelompoknya. Hal tersebut bertujuan untuk melatih anak-anak untuk berani berkomunikasi, berpendapat, dan bahu-membahu mengerjakan tugas tersebut. Ananda terlihat mampu bekerja sama dengan teman-temannya, Ananda juga terlihat bekerja keras agar semua temannya ikut andil dalam pengerjaan projek tersebut. Ananda juga terlihat tampil lebih berani dan percaya diri di semester ini.
-Secara psikomotor ananda juga selalu terlihat tidak melewatkan siang bersama, serta untuk kehadiran ananda tidak pernah melewatkan pembelajaran. Disemester berikutnya  semoga ananda lebih bisa menjaga percaya diri, keberanian dan tanggungjawab. Pertahankan!
-</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -856,13 +712,7 @@
           <t>Saskia Allipa</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah disemester kedua ini Ananda dapat menyelesaikan pembelajaran dengan sangat baik, terlihat adanya peningkatan ketika mengikuti pembelajaran. Ananda terlihat lebih nyaman saat berada didalam kelas. Di semester ini proses pembelajaran lebih ditekankan kepada kerja kelompok yakni mengerjakan interaktif unit dengan tema yang berbeda-beda disetiap kelompoknya. Hal tersebut bertujuan untuk melatih anak-anak untuk berani berkomunikasi, berpendapat, dan bahu-membahu mengerjakan tugas tersebut. Ananda terlihat mampu bekerja sama dengan teman-temannya, Ananda juga terlihat bekerja keras agar semua temannya ikut andil dalam pengerjaan projek tersebut.
-Secara psikomotor ananda juga selalu terlihat tidak melewatkan saiang bersama, serta untuk kehadiran ananda tidak pernah melewatkan pembelajaran. Disemester berikutnya  semoga ananda lebih bisa menjaga percaya diri, keberanian dan tanggungjawab. Serta mampu belajar bersama-sama  dalam mengerjakan sesuatu
-</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -873,13 +723,7 @@
           <t>Siti Nur Amalah</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok.Siti merupakan anak yang memiliki pembawaan yang humble Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Siti selalu bersemangat dalam proses pengerjaan Interaktif Unit. Siti juga mulai terlihat berani mengemukakan pendapat dan mulai berani untuk  berkomunikasi dengan temannya.
-Secara psikomotor Siti juga merupakan anak yang pintar menjaga kesehatan, karena hampir setiap hari Ananda selalu mengikuti pembelajaran. Semoga kedepannya Siti bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Siti.
-</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -890,13 +734,7 @@
           <t>Tini Nur Aeni</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda terlihat aktif dalam pembelajaran yang bersifat mandiri maupun kelompok. Tini merupakan anak yang memiliki pembawaan yang baik dan tidak keberatan jika dimintai tolong. Sehingga memudahkan Ananda dalam pengerjaan beberapa tugas yang bersifat kelompok. Hal tersebut terlihat ketika Tini selalu bersemangat dalam proses pengerjaan Interaktif Unit. Tini juga mulai terlihat berani mengemukakan pendapat dan mulai berani untuk  berkomunikasi dengan temannya.
- Semoga kedepannya Tini bisa mempertahankan prestasi yang telah diraih. Dan mampu mengembangkan potensi yang dimiliki oleh Tini.
-</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -907,13 +745,7 @@
           <t>Vicril Nurmulki</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah di pertengahan semester kedua ini Ananda dapat mengikuti pembelajran dengan cukup baik, Ananda merupakan anak yang aktif dalam mengikuti pembelajaran. Dalam pengerjaan interaktif Unit Ananda masuk dalam gruf yang meniliti pasar dadakan Jum’at.  Dalam pengerjaan tugas yang bersifat pribadi ananda cukup baik dalam menyelesaikan tugas, tetapi ketika masuk kedalam kelompok ananda sepertinya masih perlu waktu untuk menyesuaikan diri untuk terlibat didalamnya. 
-Semoga disemester berikutnya ananda bisa meningkatkan lagi kerjasama dalam tugas yang bersifat kelompok. Dan bisa lebih konsentrasi ketika proses pembelajaran.
-</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -924,14 +756,7 @@
           <t>Wanda</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Wanda
-Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. 
-Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
-</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,14 +767,7 @@
           <t>Wandi</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah dipertengahan semester dua ini Ananda mampu menjaga konsistensinya untuk beberapa hal yang sudah diraih. Dalam proses pembelajaran dikelas Ananda termasuk siswa yang bisa menjaga sikap, mudah bergaul dan pribadi yang menyenangkan sehingga teman-temannya akan senang hati jika bekerjasama dengan Wandi
-Ketika  mengerjakan interaktif unit terlihat selalu bersemangat dalam  dari menggambar cover wawancara ke narasumber hingga proses presentasi tidak terlihat diwajah Ananda ekpresi mengeluh. 
-Semoga kedepannya Ananda bisa mempertahankan prestasi yang diraih, serta menjadi pribadi yang lebih baik dalam bekerja sama.
-</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -960,13 +778,18 @@
           <t>Yan Yan Sopian</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alhamdulillah sekarang ananda telah menyelesaikan pembelajaran dipertengahan semester kedua, Ananda dikenal oleh teman-temannya sebagai siswa yang tidak banyak bicara. Disemester ini juga sekolah lebih menekankan kepada projek yang bersifat kelompok. Yang bertujuan agar anak-anak bisa lebih bisa berkomunikasi mengenal karakter satu sama lain. Alhamdulillah Yan yan mampu mengambil peran dalam projek tersebut.
-Semoga disemester berikutnya Yan yan bisa lebih tampil percaya diri untuk berbicara dan berkomunikasi langsung baik dengan teman maupun dengan guru. 
-</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>999999999</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Muhammad Rizal Murtadha</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
